--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_GpsTayNinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_GpsTayNinh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="42" r:id="rId1"/>
@@ -673,6 +673,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -688,32 +712,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1024,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -1057,43 +1057,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1138,58 +1138,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -1214,23 +1214,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="64" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="65"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1372,7 +1372,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="65"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1401,7 +1401,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="65"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="65"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1459,7 +1459,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="65"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1488,7 +1488,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="64" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1519,7 +1519,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="65"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1548,7 +1548,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="65"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1577,7 +1577,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="65"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="66"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2836,6 +2836,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2847,13 +2854,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2864,8 +2864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2897,43 +2897,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -2978,58 +2978,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3054,23 +3054,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="64" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="65"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="65"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3267,7 +3267,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="65"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3296,7 +3296,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="65"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3325,7 +3325,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="65"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3354,7 +3354,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="64" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3385,7 +3385,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="65"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3414,7 +3414,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="65"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3443,7 +3443,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="65"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3472,7 +3472,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="66"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4702,6 +4702,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4713,13 +4720,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4763,43 +4763,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -4844,58 +4844,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -4920,23 +4920,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="72"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="64"/>
       <c r="P5" s="78"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="71"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4962,7 +4962,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="64" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4993,7 +4993,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="65"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5022,7 +5022,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="65"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5051,7 +5051,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="65"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5080,7 +5080,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="65"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5109,7 +5109,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="65"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5138,7 +5138,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="64" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5169,7 +5169,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="65"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5198,7 +5198,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="65"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5227,7 +5227,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="65"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5256,7 +5256,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="66"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6487,13 +6487,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6505,6 +6498,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_GpsTayNinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_GpsTayNinh.xlsx
@@ -673,6 +673,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -690,30 +714,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1057,43 +1057,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1138,58 +1138,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -1214,23 +1214,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="64" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="65"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1372,7 +1372,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="65"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1401,7 +1401,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="65"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="65"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1459,7 +1459,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="65"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1488,7 +1488,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="64" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1519,7 +1519,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="65"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1548,7 +1548,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="65"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1577,7 +1577,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="66"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2836,13 +2836,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2854,6 +2847,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2865,7 +2865,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2897,43 +2897,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -2978,58 +2978,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3054,23 +3054,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="64" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="65"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="65"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3267,7 +3267,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="65"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3296,7 +3296,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="65"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3325,7 +3325,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="65"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3354,7 +3354,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="64" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3385,7 +3385,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="65"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3414,7 +3414,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="65"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3443,7 +3443,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3472,7 +3472,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="66"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4702,13 +4702,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4720,6 +4713,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4763,43 +4763,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -4844,58 +4844,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -4920,23 +4920,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="64"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="72"/>
       <c r="P5" s="78"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="77"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4962,7 +4962,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="64" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4993,7 +4993,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="65"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5022,7 +5022,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="65"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5051,7 +5051,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="65"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5080,7 +5080,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="65"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5109,7 +5109,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="65"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5138,7 +5138,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="64" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5169,7 +5169,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="65"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5198,7 +5198,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="65"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5227,7 +5227,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5256,7 +5256,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="66"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6487,6 +6487,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6498,13 +6505,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_GpsTayNinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_GpsTayNinh.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang4\2.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang4\2.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="42" r:id="rId1"/>
@@ -673,6 +673,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -688,32 +712,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1024,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1057,43 +1057,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1138,58 +1138,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -1214,23 +1214,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="64" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1299,7 +1299,9 @@
       <c r="B7" s="61">
         <v>44664</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>43936</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>44</v>
       </c>
@@ -1343,7 +1345,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="65"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1372,7 +1374,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="65"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1401,7 +1403,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="65"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1430,7 +1432,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="65"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1459,7 +1461,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="65"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1488,7 +1490,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="64" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1519,7 +1521,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="65"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1548,7 +1550,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="65"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1577,7 +1579,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="65"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1606,7 +1608,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="66"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2836,6 +2838,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2847,13 +2856,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2864,8 +2866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2897,43 +2899,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -2978,58 +2980,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3054,23 +3056,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3120,7 +3122,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="64" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3181,7 +3183,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="65"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3238,7 +3240,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="65"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3267,7 +3269,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="65"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3296,7 +3298,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="65"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3325,7 +3327,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="65"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3354,7 +3356,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="64" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3385,7 +3387,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="65"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3414,7 +3416,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="65"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3443,7 +3445,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="65"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3472,7 +3474,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="66"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4702,6 +4704,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4713,13 +4722,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4763,43 +4765,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -4844,58 +4846,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -4920,23 +4922,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="72"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="64"/>
       <c r="P5" s="78"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="71"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4962,7 +4964,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="64" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4993,7 +4995,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="65"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5022,7 +5024,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="65"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5051,7 +5053,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="65"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5080,7 +5082,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="65"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5109,7 +5111,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="65"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5138,7 +5140,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="64" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5169,7 +5171,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="65"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5198,7 +5200,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="65"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5227,7 +5229,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="65"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5256,7 +5258,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="66"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6487,13 +6489,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6505,6 +6500,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
